--- a/data/FacultyKeys.xlsx
+++ b/data/FacultyKeys.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\charliew\KI_core_usage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D51BD-B752-455F-8783-E195F1A6BF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09448D67-AAFA-4453-83B1-2CD01501D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1035" windowWidth="25815" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="5430" windowWidth="27675" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$716</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$718</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1260">
   <si>
     <t>Hammond, Paula T (Koch) Lab</t>
   </si>
@@ -3807,6 +3807,18 @@
   </si>
   <si>
     <t>Xu, Lei</t>
+  </si>
+  <si>
+    <t>Gabriely</t>
+  </si>
+  <si>
+    <t>Gabrieli, John</t>
+  </si>
+  <si>
+    <t>Hallett, Penelope</t>
+  </si>
+  <si>
+    <t>Hallett</t>
   </si>
 </sst>
 </file>
@@ -3858,31 +3870,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5E34A1C1-676A-4F3D-9375-03F2598CBF52}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4183,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C716"/>
+  <dimension ref="A1:C718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,13 +6507,13 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B212" t="s">
-        <v>714</v>
+        <v>1256</v>
       </c>
       <c r="C212" t="s">
-        <v>715</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,10 +6521,10 @@
         <v>923</v>
       </c>
       <c r="B213" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C213" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,10 +6532,10 @@
         <v>923</v>
       </c>
       <c r="B214" t="s">
-        <v>175</v>
+        <v>725</v>
       </c>
       <c r="C214" t="s">
-        <v>955</v>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6555,29 +6543,29 @@
         <v>923</v>
       </c>
       <c r="B215" t="s">
-        <v>692</v>
+        <v>175</v>
       </c>
       <c r="C215" t="s">
-        <v>693</v>
+        <v>955</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B216" t="s">
-        <v>1091</v>
+        <v>692</v>
       </c>
       <c r="C216" t="s">
-        <v>91</v>
+        <v>693</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B217" t="s">
-        <v>90</v>
+        <v>1091</v>
       </c>
       <c r="C217" t="s">
         <v>91</v>
@@ -6585,24 +6573,24 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B218" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C218" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C218" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B219" t="s">
-        <v>464</v>
-      </c>
-      <c r="C219" t="s">
-        <v>465</v>
+        <v>1159</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,10 +6598,10 @@
         <v>923</v>
       </c>
       <c r="B220" t="s">
-        <v>596</v>
+        <v>464</v>
       </c>
       <c r="C220" t="s">
-        <v>597</v>
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,29 +6609,29 @@
         <v>923</v>
       </c>
       <c r="B221" t="s">
-        <v>147</v>
+        <v>596</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B222" t="s">
-        <v>1092</v>
+        <v>147</v>
       </c>
       <c r="C222" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B223" t="s">
-        <v>111</v>
+        <v>1092</v>
       </c>
       <c r="C223" t="s">
         <v>112</v>
@@ -6651,13 +6639,13 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B224" t="s">
-        <v>1160</v>
+        <v>111</v>
       </c>
       <c r="C224" t="s">
-        <v>1160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,21 +6653,21 @@
         <v>1129</v>
       </c>
       <c r="B225" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C225" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B226" t="s">
-        <v>598</v>
+        <v>1161</v>
       </c>
       <c r="C226" t="s">
-        <v>599</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6687,10 +6675,10 @@
         <v>923</v>
       </c>
       <c r="B227" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="C227" t="s">
-        <v>956</v>
+        <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6698,10 +6686,10 @@
         <v>923</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>650</v>
       </c>
       <c r="C228" t="s">
-        <v>155</v>
+        <v>956</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,10 +6697,10 @@
         <v>923</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,29 +6708,29 @@
         <v>923</v>
       </c>
       <c r="B230" t="s">
-        <v>456</v>
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>457</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B231" t="s">
-        <v>1093</v>
+        <v>456</v>
       </c>
       <c r="C231" t="s">
-        <v>957</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B232" t="s">
-        <v>548</v>
+        <v>1093</v>
       </c>
       <c r="C232" t="s">
         <v>957</v>
@@ -6750,24 +6738,24 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B233" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1235</v>
+        <v>548</v>
+      </c>
+      <c r="C233" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B234" t="s">
-        <v>629</v>
-      </c>
-      <c r="C234" t="s">
-        <v>630</v>
+        <v>1162</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6775,32 +6763,32 @@
         <v>923</v>
       </c>
       <c r="B235" t="s">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="C235" t="s">
-        <v>476</v>
+        <v>630</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B236" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1236</v>
+        <v>475</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B237" t="s">
-        <v>697</v>
-      </c>
-      <c r="C237" t="s">
-        <v>698</v>
+        <v>1163</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6808,10 +6796,10 @@
         <v>923</v>
       </c>
       <c r="B238" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="C238" t="s">
-        <v>474</v>
+        <v>698</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6819,10 +6807,10 @@
         <v>923</v>
       </c>
       <c r="B239" t="s">
-        <v>760</v>
+        <v>473</v>
       </c>
       <c r="C239" t="s">
-        <v>761</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,10 +6818,10 @@
         <v>923</v>
       </c>
       <c r="B240" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="C240" t="s">
-        <v>803</v>
+        <v>761</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6841,10 +6829,10 @@
         <v>923</v>
       </c>
       <c r="B241" t="s">
-        <v>752</v>
+        <v>802</v>
       </c>
       <c r="C241" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6852,10 +6840,10 @@
         <v>923</v>
       </c>
       <c r="B242" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="C242" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6863,10 +6851,10 @@
         <v>923</v>
       </c>
       <c r="B243" t="s">
-        <v>170</v>
+        <v>664</v>
       </c>
       <c r="C243" t="s">
-        <v>958</v>
+        <v>665</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6874,10 +6862,10 @@
         <v>923</v>
       </c>
       <c r="B244" t="s">
-        <v>897</v>
+        <v>170</v>
       </c>
       <c r="C244" t="s">
-        <v>898</v>
+        <v>958</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6885,10 +6873,10 @@
         <v>923</v>
       </c>
       <c r="B245" t="s">
-        <v>232</v>
+        <v>897</v>
       </c>
       <c r="C245" t="s">
-        <v>233</v>
+        <v>898</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +6884,10 @@
         <v>923</v>
       </c>
       <c r="B246" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C246" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,29 +6895,29 @@
         <v>923</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B248" t="s">
-        <v>1094</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>959</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B249" t="s">
-        <v>107</v>
+        <v>1094</v>
       </c>
       <c r="C249" t="s">
         <v>959</v>
@@ -6940,10 +6928,10 @@
         <v>923</v>
       </c>
       <c r="B250" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="C250" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,29 +6939,29 @@
         <v>923</v>
       </c>
       <c r="B251" t="s">
-        <v>546</v>
+        <v>195</v>
       </c>
       <c r="C251" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B252" t="s">
-        <v>1095</v>
+        <v>546</v>
       </c>
       <c r="C252" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B253" t="s">
-        <v>529</v>
+        <v>1095</v>
       </c>
       <c r="C253" t="s">
         <v>962</v>
@@ -6981,21 +6969,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B254" t="s">
-        <v>1058</v>
+        <v>529</v>
       </c>
       <c r="C254" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B255" t="s">
-        <v>425</v>
+        <v>1058</v>
       </c>
       <c r="C255" t="s">
         <v>963</v>
@@ -7006,10 +6994,10 @@
         <v>923</v>
       </c>
       <c r="B256" t="s">
-        <v>576</v>
+        <v>425</v>
       </c>
       <c r="C256" t="s">
-        <v>577</v>
+        <v>963</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7017,10 +7005,10 @@
         <v>923</v>
       </c>
       <c r="B257" t="s">
-        <v>699</v>
+        <v>576</v>
       </c>
       <c r="C257" t="s">
-        <v>700</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7028,21 +7016,21 @@
         <v>923</v>
       </c>
       <c r="B258" t="s">
-        <v>561</v>
+        <v>699</v>
       </c>
       <c r="C258" t="s">
-        <v>562</v>
+        <v>700</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B259" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>1237</v>
+        <v>561</v>
+      </c>
+      <c r="C259" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7050,43 +7038,43 @@
         <v>1129</v>
       </c>
       <c r="B260" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1165</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B261" t="s">
-        <v>434</v>
-      </c>
-      <c r="C261" t="s">
-        <v>435</v>
+        <v>1165</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B262" t="s">
-        <v>1166</v>
+        <v>434</v>
       </c>
       <c r="C262" t="s">
-        <v>1166</v>
+        <v>435</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B263" t="s">
-        <v>512</v>
+        <v>1166</v>
       </c>
       <c r="C263" t="s">
-        <v>513</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7094,10 +7082,10 @@
         <v>923</v>
       </c>
       <c r="B264" t="s">
-        <v>899</v>
+        <v>512</v>
       </c>
       <c r="C264" t="s">
-        <v>900</v>
+        <v>513</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7105,40 +7093,40 @@
         <v>923</v>
       </c>
       <c r="B265" t="s">
-        <v>507</v>
+        <v>899</v>
       </c>
       <c r="C265" t="s">
-        <v>508</v>
+        <v>900</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B266" t="s">
-        <v>1096</v>
+        <v>507</v>
       </c>
       <c r="C266" t="s">
-        <v>967</v>
+        <v>508</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B267" t="s">
-        <v>1051</v>
+        <v>1259</v>
       </c>
       <c r="C267" t="s">
-        <v>967</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B268" t="s">
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="C268" t="s">
         <v>967</v>
@@ -7146,13 +7134,13 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B269" t="s">
-        <v>542</v>
+        <v>1051</v>
       </c>
       <c r="C269" t="s">
-        <v>543</v>
+        <v>967</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7160,10 +7148,10 @@
         <v>923</v>
       </c>
       <c r="B270" t="s">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>172</v>
+        <v>967</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7171,10 +7159,10 @@
         <v>923</v>
       </c>
       <c r="B271" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="C271" t="s">
-        <v>969</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7182,21 +7170,21 @@
         <v>923</v>
       </c>
       <c r="B272" t="s">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="C272" t="s">
-        <v>968</v>
+        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B273" t="s">
-        <v>1097</v>
+        <v>608</v>
       </c>
       <c r="C273" t="s">
-        <v>163</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7204,51 +7192,51 @@
         <v>923</v>
       </c>
       <c r="B274" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="C274" t="s">
-        <v>163</v>
+        <v>968</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B275" t="s">
-        <v>786</v>
+        <v>1097</v>
       </c>
       <c r="C275" t="s">
-        <v>787</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B276" t="s">
-        <v>1098</v>
+        <v>162</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B277" t="s">
-        <v>1043</v>
+        <v>786</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>787</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B278" t="s">
-        <v>20</v>
+        <v>1098</v>
       </c>
       <c r="C278" t="s">
         <v>21</v>
@@ -7256,13 +7244,13 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B279" t="s">
-        <v>666</v>
+        <v>1043</v>
       </c>
       <c r="C279" t="s">
-        <v>667</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7270,10 +7258,10 @@
         <v>923</v>
       </c>
       <c r="B280" t="s">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="C280" t="s">
-        <v>472</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7281,21 +7269,21 @@
         <v>923</v>
       </c>
       <c r="B281" t="s">
-        <v>353</v>
+        <v>666</v>
       </c>
       <c r="C281" t="s">
-        <v>354</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B282" t="s">
-        <v>1167</v>
+        <v>471</v>
       </c>
       <c r="C282" t="s">
-        <v>1167</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,32 +7291,32 @@
         <v>923</v>
       </c>
       <c r="B283" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="C283" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B284" t="s">
-        <v>640</v>
+        <v>1167</v>
       </c>
       <c r="C284" t="s">
-        <v>641</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B285" t="s">
-        <v>1099</v>
+        <v>228</v>
       </c>
       <c r="C285" t="s">
-        <v>970</v>
+        <v>228</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7336,21 +7324,21 @@
         <v>923</v>
       </c>
       <c r="B286" t="s">
-        <v>106</v>
+        <v>640</v>
       </c>
       <c r="C286" t="s">
-        <v>970</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B287" t="s">
-        <v>638</v>
+        <v>1099</v>
       </c>
       <c r="C287" t="s">
-        <v>639</v>
+        <v>970</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7358,21 +7346,21 @@
         <v>923</v>
       </c>
       <c r="B288" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C288" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B289" t="s">
-        <v>1033</v>
+        <v>638</v>
       </c>
       <c r="C289" t="s">
-        <v>72</v>
+        <v>639</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,21 +7368,21 @@
         <v>923</v>
       </c>
       <c r="B290" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C290" t="s">
-        <v>72</v>
+        <v>971</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B291" t="s">
-        <v>853</v>
+        <v>1033</v>
       </c>
       <c r="C291" t="s">
-        <v>854</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,10 +7390,10 @@
         <v>923</v>
       </c>
       <c r="B292" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="C292" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,21 +7401,21 @@
         <v>923</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
+        <v>853</v>
       </c>
       <c r="C293" t="s">
-        <v>344</v>
+        <v>854</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B294" t="s">
-        <v>1061</v>
+        <v>270</v>
       </c>
       <c r="C294" t="s">
-        <v>1067</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,21 +7423,21 @@
         <v>923</v>
       </c>
       <c r="B295" t="s">
-        <v>606</v>
+        <v>343</v>
       </c>
       <c r="C295" t="s">
-        <v>607</v>
+        <v>344</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B296" t="s">
-        <v>291</v>
+        <v>1061</v>
       </c>
       <c r="C296" t="s">
-        <v>972</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,10 +7445,10 @@
         <v>923</v>
       </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>606</v>
       </c>
       <c r="C297" t="s">
-        <v>972</v>
+        <v>607</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,10 +7456,10 @@
         <v>923</v>
       </c>
       <c r="B298" t="s">
-        <v>604</v>
+        <v>291</v>
       </c>
       <c r="C298" t="s">
-        <v>605</v>
+        <v>972</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,21 +7467,21 @@
         <v>923</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="C299" t="s">
-        <v>185</v>
+        <v>972</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B300" t="s">
-        <v>1168</v>
+        <v>604</v>
       </c>
       <c r="C300" t="s">
-        <v>1168</v>
+        <v>605</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7501,10 +7489,10 @@
         <v>923</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C301" t="s">
-        <v>973</v>
+        <v>185</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,10 +7500,10 @@
         <v>1129</v>
       </c>
       <c r="B302" t="s">
-        <v>1100</v>
+        <v>1168</v>
       </c>
       <c r="C302" t="s">
-        <v>974</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,10 +7511,10 @@
         <v>923</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,10 +7522,10 @@
         <v>1129</v>
       </c>
       <c r="B304" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C304" t="s">
-        <v>269</v>
+        <v>974</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,21 +7533,21 @@
         <v>923</v>
       </c>
       <c r="B305" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="C305" t="s">
-        <v>269</v>
+        <v>974</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B306" t="s">
-        <v>357</v>
+        <v>1101</v>
       </c>
       <c r="C306" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,21 +7555,21 @@
         <v>923</v>
       </c>
       <c r="B307" t="s">
-        <v>402</v>
+        <v>268</v>
       </c>
       <c r="C307" t="s">
-        <v>403</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B308" t="s">
-        <v>1059</v>
+        <v>357</v>
       </c>
       <c r="C308" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,21 +7577,21 @@
         <v>923</v>
       </c>
       <c r="B309" t="s">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="C309" t="s">
-        <v>79</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B310" t="s">
-        <v>869</v>
+        <v>1059</v>
       </c>
       <c r="C310" t="s">
-        <v>870</v>
+        <v>79</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,40 +7599,40 @@
         <v>923</v>
       </c>
       <c r="B311" t="s">
-        <v>694</v>
+        <v>78</v>
       </c>
       <c r="C311" t="s">
-        <v>695</v>
+        <v>79</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B312" t="s">
-        <v>1102</v>
+        <v>869</v>
       </c>
       <c r="C312" t="s">
-        <v>184</v>
+        <v>870</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B313" t="s">
-        <v>1038</v>
+        <v>694</v>
       </c>
       <c r="C313" t="s">
-        <v>184</v>
+        <v>695</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B314" t="s">
-        <v>183</v>
+        <v>1102</v>
       </c>
       <c r="C314" t="s">
         <v>184</v>
@@ -7652,13 +7640,13 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B315" t="s">
-        <v>849</v>
+        <v>1038</v>
       </c>
       <c r="C315" t="s">
-        <v>850</v>
+        <v>184</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7666,10 +7654,10 @@
         <v>923</v>
       </c>
       <c r="B316" t="s">
-        <v>469</v>
+        <v>183</v>
       </c>
       <c r="C316" t="s">
-        <v>470</v>
+        <v>184</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,10 +7665,10 @@
         <v>923</v>
       </c>
       <c r="B317" t="s">
-        <v>905</v>
+        <v>849</v>
       </c>
       <c r="C317" t="s">
-        <v>906</v>
+        <v>850</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7688,10 +7676,10 @@
         <v>923</v>
       </c>
       <c r="B318" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="C318" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,10 +7687,10 @@
         <v>923</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>905</v>
       </c>
       <c r="C319" t="s">
-        <v>976</v>
+        <v>906</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +7698,10 @@
         <v>923</v>
       </c>
       <c r="B320" t="s">
-        <v>671</v>
+        <v>446</v>
       </c>
       <c r="C320" t="s">
-        <v>672</v>
+        <v>446</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,10 +7709,10 @@
         <v>923</v>
       </c>
       <c r="B321" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,54 +7720,54 @@
         <v>923</v>
       </c>
       <c r="B322" t="s">
-        <v>339</v>
+        <v>671</v>
       </c>
       <c r="C322" t="s">
-        <v>340</v>
+        <v>672</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B323" t="s">
-        <v>1045</v>
+        <v>23</v>
       </c>
       <c r="C323" t="s">
-        <v>1063</v>
+        <v>975</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1221</v>
+        <v>923</v>
       </c>
       <c r="B324" t="s">
-        <v>1222</v>
+        <v>339</v>
       </c>
       <c r="C324" t="s">
-        <v>1222</v>
+        <v>340</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B325" t="s">
-        <v>733</v>
+        <v>1045</v>
       </c>
       <c r="C325" t="s">
-        <v>734</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>923</v>
+        <v>1221</v>
       </c>
       <c r="B326" t="s">
-        <v>38</v>
+        <v>1222</v>
       </c>
       <c r="C326" t="s">
-        <v>977</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7787,10 +7775,10 @@
         <v>923</v>
       </c>
       <c r="B327" t="s">
-        <v>220</v>
+        <v>733</v>
       </c>
       <c r="C327" t="s">
-        <v>221</v>
+        <v>734</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7798,10 +7786,10 @@
         <v>923</v>
       </c>
       <c r="B328" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C328" t="s">
-        <v>261</v>
+        <v>977</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,10 +7797,10 @@
         <v>923</v>
       </c>
       <c r="B329" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="C329" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,10 +7808,10 @@
         <v>923</v>
       </c>
       <c r="B330" t="s">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="C330" t="s">
-        <v>393</v>
+        <v>261</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,21 +7819,21 @@
         <v>923</v>
       </c>
       <c r="B331" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="C331" t="s">
-        <v>978</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B332" t="s">
-        <v>1103</v>
+        <v>392</v>
       </c>
       <c r="C332" t="s">
-        <v>126</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,21 +7841,21 @@
         <v>923</v>
       </c>
       <c r="B333" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="C333" t="s">
-        <v>126</v>
+        <v>978</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B334" t="s">
-        <v>226</v>
+        <v>1103</v>
       </c>
       <c r="C334" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,21 +7863,21 @@
         <v>923</v>
       </c>
       <c r="B335" t="s">
-        <v>901</v>
+        <v>125</v>
       </c>
       <c r="C335" t="s">
-        <v>902</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B336" t="s">
-        <v>1104</v>
+        <v>226</v>
       </c>
       <c r="C336" t="s">
-        <v>1219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,32 +7885,32 @@
         <v>923</v>
       </c>
       <c r="B337" t="s">
-        <v>2</v>
+        <v>901</v>
       </c>
       <c r="C337" t="s">
-        <v>1219</v>
+        <v>902</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B338" t="s">
-        <v>580</v>
+        <v>1104</v>
       </c>
       <c r="C338" t="s">
-        <v>979</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B339" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>1238</v>
+        <v>2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,21 +7918,21 @@
         <v>923</v>
       </c>
       <c r="B340" t="s">
-        <v>377</v>
+        <v>580</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>979</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B341" t="s">
-        <v>88</v>
-      </c>
-      <c r="C341" t="s">
-        <v>89</v>
+        <v>1169</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,10 +7940,10 @@
         <v>923</v>
       </c>
       <c r="B342" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="C342" t="s">
-        <v>980</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,10 +7951,10 @@
         <v>923</v>
       </c>
       <c r="B343" t="s">
-        <v>489</v>
+        <v>88</v>
       </c>
       <c r="C343" t="s">
-        <v>490</v>
+        <v>89</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,10 +7962,10 @@
         <v>923</v>
       </c>
       <c r="B344" t="s">
-        <v>750</v>
+        <v>42</v>
       </c>
       <c r="C344" t="s">
-        <v>751</v>
+        <v>980</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,10 +7973,10 @@
         <v>923</v>
       </c>
       <c r="B345" t="s">
-        <v>336</v>
+        <v>489</v>
       </c>
       <c r="C345" t="s">
-        <v>981</v>
+        <v>490</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,10 +7984,10 @@
         <v>923</v>
       </c>
       <c r="B346" t="s">
-        <v>116</v>
+        <v>750</v>
       </c>
       <c r="C346" t="s">
-        <v>981</v>
+        <v>751</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,10 +7995,10 @@
         <v>923</v>
       </c>
       <c r="B347" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C347" t="s">
-        <v>368</v>
+        <v>981</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,10 +8006,10 @@
         <v>923</v>
       </c>
       <c r="B348" t="s">
-        <v>594</v>
+        <v>116</v>
       </c>
       <c r="C348" t="s">
-        <v>595</v>
+        <v>981</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,10 +8017,10 @@
         <v>923</v>
       </c>
       <c r="B349" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="C349" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,10 +8028,10 @@
         <v>923</v>
       </c>
       <c r="B350" t="s">
-        <v>177</v>
+        <v>594</v>
       </c>
       <c r="C350" t="s">
-        <v>178</v>
+        <v>595</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,10 +8039,10 @@
         <v>923</v>
       </c>
       <c r="B351" t="s">
-        <v>644</v>
+        <v>210</v>
       </c>
       <c r="C351" t="s">
-        <v>645</v>
+        <v>211</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8050,10 @@
         <v>923</v>
       </c>
       <c r="B352" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C352" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,10 +8061,10 @@
         <v>923</v>
       </c>
       <c r="B353" t="s">
-        <v>222</v>
+        <v>644</v>
       </c>
       <c r="C353" t="s">
-        <v>223</v>
+        <v>645</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,21 +8072,21 @@
         <v>923</v>
       </c>
       <c r="B354" t="s">
-        <v>915</v>
+        <v>96</v>
       </c>
       <c r="C354" t="s">
-        <v>916</v>
+        <v>97</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B355" t="s">
-        <v>1105</v>
+        <v>222</v>
       </c>
       <c r="C355" t="s">
-        <v>620</v>
+        <v>223</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,10 +8094,10 @@
         <v>923</v>
       </c>
       <c r="B356" t="s">
-        <v>619</v>
+        <v>915</v>
       </c>
       <c r="C356" t="s">
-        <v>620</v>
+        <v>916</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,10 +8105,10 @@
         <v>1129</v>
       </c>
       <c r="B357" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C357" t="s">
-        <v>115</v>
+        <v>620</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,21 +8116,21 @@
         <v>923</v>
       </c>
       <c r="B358" t="s">
-        <v>114</v>
+        <v>619</v>
       </c>
       <c r="C358" t="s">
-        <v>115</v>
+        <v>620</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1221</v>
+        <v>1129</v>
       </c>
       <c r="B359" t="s">
-        <v>1223</v>
+        <v>1106</v>
       </c>
       <c r="C359" t="s">
-        <v>1223</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,40 +8138,40 @@
         <v>923</v>
       </c>
       <c r="B360" t="s">
-        <v>893</v>
+        <v>114</v>
       </c>
       <c r="C360" t="s">
-        <v>894</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1129</v>
+        <v>1221</v>
       </c>
       <c r="B361" t="s">
-        <v>1107</v>
+        <v>1223</v>
       </c>
       <c r="C361" t="s">
-        <v>982</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B362" t="s">
-        <v>1044</v>
+        <v>893</v>
       </c>
       <c r="C362" t="s">
-        <v>982</v>
+        <v>894</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B363" t="s">
-        <v>22</v>
+        <v>1107</v>
       </c>
       <c r="C363" t="s">
         <v>982</v>
@@ -8191,10 +8179,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B364" t="s">
-        <v>1</v>
+        <v>1044</v>
       </c>
       <c r="C364" t="s">
         <v>982</v>
@@ -8205,10 +8193,10 @@
         <v>923</v>
       </c>
       <c r="B365" t="s">
-        <v>418</v>
+        <v>22</v>
       </c>
       <c r="C365" t="s">
-        <v>419</v>
+        <v>982</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,40 +8204,40 @@
         <v>923</v>
       </c>
       <c r="B366" t="s">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>225</v>
+        <v>982</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B367" t="s">
-        <v>1108</v>
+        <v>418</v>
       </c>
       <c r="C367" t="s">
-        <v>983</v>
+        <v>419</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B368" t="s">
-        <v>1047</v>
+        <v>224</v>
       </c>
       <c r="C368" t="s">
-        <v>983</v>
+        <v>225</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B369" t="s">
-        <v>180</v>
+        <v>1108</v>
       </c>
       <c r="C369" t="s">
         <v>983</v>
@@ -8257,24 +8245,24 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B370" t="s">
-        <v>423</v>
+        <v>1047</v>
       </c>
       <c r="C370" t="s">
-        <v>424</v>
+        <v>983</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B371" t="s">
-        <v>1109</v>
+        <v>180</v>
       </c>
       <c r="C371" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,21 +8270,21 @@
         <v>923</v>
       </c>
       <c r="B372" t="s">
-        <v>153</v>
+        <v>423</v>
       </c>
       <c r="C372" t="s">
-        <v>984</v>
+        <v>424</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B373" t="s">
-        <v>477</v>
+        <v>1109</v>
       </c>
       <c r="C373" t="s">
-        <v>478</v>
+        <v>984</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,10 +8292,10 @@
         <v>923</v>
       </c>
       <c r="B374" t="s">
-        <v>807</v>
+        <v>153</v>
       </c>
       <c r="C374" t="s">
-        <v>808</v>
+        <v>984</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,10 +8303,10 @@
         <v>923</v>
       </c>
       <c r="B375" t="s">
-        <v>721</v>
+        <v>477</v>
       </c>
       <c r="C375" t="s">
-        <v>722</v>
+        <v>478</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,21 +8314,21 @@
         <v>923</v>
       </c>
       <c r="B376" t="s">
-        <v>34</v>
+        <v>807</v>
       </c>
       <c r="C376" t="s">
-        <v>35</v>
+        <v>808</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B377" t="s">
-        <v>1053</v>
+        <v>721</v>
       </c>
       <c r="C377" t="s">
-        <v>985</v>
+        <v>722</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,21 +8336,21 @@
         <v>923</v>
       </c>
       <c r="B378" t="s">
-        <v>439</v>
+        <v>34</v>
       </c>
       <c r="C378" t="s">
-        <v>985</v>
+        <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B379" t="s">
-        <v>84</v>
+        <v>1053</v>
       </c>
       <c r="C379" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,10 +8358,10 @@
         <v>923</v>
       </c>
       <c r="B380" t="s">
-        <v>883</v>
+        <v>439</v>
       </c>
       <c r="C380" t="s">
-        <v>884</v>
+        <v>985</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,10 +8369,10 @@
         <v>923</v>
       </c>
       <c r="B381" t="s">
-        <v>841</v>
+        <v>84</v>
       </c>
       <c r="C381" t="s">
-        <v>842</v>
+        <v>986</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,51 +8380,51 @@
         <v>923</v>
       </c>
       <c r="B382" t="s">
-        <v>676</v>
+        <v>883</v>
       </c>
       <c r="C382" t="s">
-        <v>677</v>
+        <v>884</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B383" t="s">
-        <v>1110</v>
+        <v>841</v>
       </c>
       <c r="C383" t="s">
-        <v>44</v>
+        <v>842</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B384" t="s">
-        <v>1036</v>
+        <v>676</v>
       </c>
       <c r="C384" t="s">
-        <v>118</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B385" t="s">
-        <v>881</v>
+        <v>1110</v>
       </c>
       <c r="C385" t="s">
-        <v>882</v>
+        <v>44</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B386" t="s">
-        <v>117</v>
+        <v>1036</v>
       </c>
       <c r="C386" t="s">
         <v>118</v>
@@ -8447,10 +8435,10 @@
         <v>923</v>
       </c>
       <c r="B387" t="s">
-        <v>422</v>
+        <v>881</v>
       </c>
       <c r="C387" t="s">
-        <v>161</v>
+        <v>882</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,10 +8446,10 @@
         <v>923</v>
       </c>
       <c r="B388" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C388" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,10 +8457,10 @@
         <v>923</v>
       </c>
       <c r="B389" t="s">
-        <v>43</v>
+        <v>422</v>
       </c>
       <c r="C389" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,10 +8468,10 @@
         <v>923</v>
       </c>
       <c r="B390" t="s">
-        <v>624</v>
+        <v>160</v>
       </c>
       <c r="C390" t="s">
-        <v>625</v>
+        <v>161</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,21 +8479,21 @@
         <v>923</v>
       </c>
       <c r="B391" t="s">
-        <v>369</v>
+        <v>43</v>
       </c>
       <c r="C391" t="s">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B392" t="s">
-        <v>1111</v>
+        <v>624</v>
       </c>
       <c r="C392" t="s">
-        <v>505</v>
+        <v>625</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,10 +8501,10 @@
         <v>923</v>
       </c>
       <c r="B393" t="s">
-        <v>504</v>
+        <v>369</v>
       </c>
       <c r="C393" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,10 +8512,10 @@
         <v>1129</v>
       </c>
       <c r="B394" t="s">
-        <v>1170</v>
+        <v>1111</v>
       </c>
       <c r="C394" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,21 +8523,21 @@
         <v>923</v>
       </c>
       <c r="B395" t="s">
-        <v>156</v>
+        <v>504</v>
       </c>
       <c r="C395" t="s">
-        <v>987</v>
+        <v>505</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B396" t="s">
-        <v>506</v>
+        <v>1170</v>
       </c>
       <c r="C396" t="s">
-        <v>382</v>
+        <v>161</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,10 +8545,10 @@
         <v>923</v>
       </c>
       <c r="B397" t="s">
-        <v>711</v>
+        <v>156</v>
       </c>
       <c r="C397" t="s">
-        <v>382</v>
+        <v>987</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,7 +8556,7 @@
         <v>923</v>
       </c>
       <c r="B398" t="s">
-        <v>381</v>
+        <v>506</v>
       </c>
       <c r="C398" t="s">
         <v>382</v>
@@ -8579,10 +8567,10 @@
         <v>923</v>
       </c>
       <c r="B399" t="s">
-        <v>544</v>
+        <v>711</v>
       </c>
       <c r="C399" t="s">
-        <v>545</v>
+        <v>382</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,10 +8578,10 @@
         <v>923</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C400" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,21 +8589,21 @@
         <v>923</v>
       </c>
       <c r="B401" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C401" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B402" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>1239</v>
+        <v>390</v>
+      </c>
+      <c r="C402" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,10 +8611,10 @@
         <v>923</v>
       </c>
       <c r="B403" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="C403" t="s">
-        <v>988</v>
+        <v>575</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,10 +8622,10 @@
         <v>1129</v>
       </c>
       <c r="B404" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,21 +8633,21 @@
         <v>923</v>
       </c>
       <c r="B405" t="s">
-        <v>186</v>
+        <v>547</v>
       </c>
       <c r="C405" t="s">
-        <v>187</v>
+        <v>988</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B406" t="s">
-        <v>130</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1220</v>
+        <v>1172</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,10 +8655,10 @@
         <v>923</v>
       </c>
       <c r="B407" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="C407" t="s">
-        <v>989</v>
+        <v>187</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,10 +8666,10 @@
         <v>923</v>
       </c>
       <c r="B408" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="C408" t="s">
-        <v>231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8677,10 @@
         <v>923</v>
       </c>
       <c r="B409" t="s">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="C409" t="s">
-        <v>437</v>
+        <v>989</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,10 +8688,10 @@
         <v>923</v>
       </c>
       <c r="B410" t="s">
-        <v>788</v>
+        <v>230</v>
       </c>
       <c r="C410" t="s">
-        <v>789</v>
+        <v>231</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,10 +8699,10 @@
         <v>923</v>
       </c>
       <c r="B411" t="s">
-        <v>895</v>
+        <v>436</v>
       </c>
       <c r="C411" t="s">
-        <v>896</v>
+        <v>437</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,10 +8710,10 @@
         <v>923</v>
       </c>
       <c r="B412" t="s">
-        <v>621</v>
+        <v>788</v>
       </c>
       <c r="C412" t="s">
-        <v>990</v>
+        <v>789</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,21 +8721,21 @@
         <v>923</v>
       </c>
       <c r="B413" t="s">
-        <v>705</v>
+        <v>895</v>
       </c>
       <c r="C413" t="s">
-        <v>706</v>
+        <v>896</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B414" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1241</v>
+        <v>621</v>
+      </c>
+      <c r="C414" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,32 +8743,32 @@
         <v>923</v>
       </c>
       <c r="B415" t="s">
-        <v>264</v>
+        <v>705</v>
       </c>
       <c r="C415" t="s">
-        <v>265</v>
+        <v>706</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B416" t="s">
-        <v>438</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1064</v>
+        <v>1173</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B417" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1174</v>
+        <v>264</v>
+      </c>
+      <c r="C417" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,10 +8776,10 @@
         <v>923</v>
       </c>
       <c r="B418" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="C418" t="s">
-        <v>253</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,10 +8787,10 @@
         <v>1129</v>
       </c>
       <c r="B419" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1242</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,21 +8798,21 @@
         <v>923</v>
       </c>
       <c r="B420" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="C420" t="s">
-        <v>991</v>
+        <v>253</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B421" t="s">
-        <v>334</v>
-      </c>
-      <c r="C421" t="s">
-        <v>335</v>
+        <v>1175</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,10 +8820,10 @@
         <v>923</v>
       </c>
       <c r="B422" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>487</v>
+        <v>991</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,10 +8831,10 @@
         <v>923</v>
       </c>
       <c r="B423" t="s">
-        <v>642</v>
+        <v>334</v>
       </c>
       <c r="C423" t="s">
-        <v>643</v>
+        <v>335</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,10 +8842,10 @@
         <v>923</v>
       </c>
       <c r="B424" t="s">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="C424" t="s">
-        <v>560</v>
+        <v>487</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,10 +8853,10 @@
         <v>923</v>
       </c>
       <c r="B425" t="s">
-        <v>280</v>
+        <v>642</v>
       </c>
       <c r="C425" t="s">
-        <v>281</v>
+        <v>643</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,10 +8864,10 @@
         <v>923</v>
       </c>
       <c r="B426" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C426" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,21 +8875,21 @@
         <v>923</v>
       </c>
       <c r="B427" t="s">
-        <v>397</v>
+        <v>280</v>
       </c>
       <c r="C427" t="s">
-        <v>398</v>
+        <v>281</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B428" t="s">
-        <v>1112</v>
+        <v>536</v>
       </c>
       <c r="C428" t="s">
-        <v>992</v>
+        <v>537</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,21 +8897,21 @@
         <v>923</v>
       </c>
       <c r="B429" t="s">
-        <v>675</v>
+        <v>397</v>
       </c>
       <c r="C429" t="s">
-        <v>992</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B430" t="s">
-        <v>778</v>
+        <v>1112</v>
       </c>
       <c r="C430" t="s">
-        <v>779</v>
+        <v>992</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,10 +8919,10 @@
         <v>923</v>
       </c>
       <c r="B431" t="s">
-        <v>99</v>
+        <v>675</v>
       </c>
       <c r="C431" t="s">
-        <v>100</v>
+        <v>992</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,10 +8930,10 @@
         <v>923</v>
       </c>
       <c r="B432" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
       <c r="C432" t="s">
-        <v>713</v>
+        <v>779</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +8941,10 @@
         <v>923</v>
       </c>
       <c r="B433" t="s">
-        <v>855</v>
+        <v>99</v>
       </c>
       <c r="C433" t="s">
-        <v>856</v>
+        <v>100</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +8952,10 @@
         <v>923</v>
       </c>
       <c r="B434" t="s">
-        <v>578</v>
+        <v>712</v>
       </c>
       <c r="C434" t="s">
-        <v>579</v>
+        <v>713</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +8963,10 @@
         <v>923</v>
       </c>
       <c r="B435" t="s">
-        <v>635</v>
+        <v>855</v>
       </c>
       <c r="C435" t="s">
-        <v>993</v>
+        <v>856</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +8974,10 @@
         <v>923</v>
       </c>
       <c r="B436" t="s">
-        <v>827</v>
+        <v>578</v>
       </c>
       <c r="C436" t="s">
-        <v>828</v>
+        <v>579</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +8985,10 @@
         <v>923</v>
       </c>
       <c r="B437" t="s">
-        <v>365</v>
+        <v>635</v>
       </c>
       <c r="C437" t="s">
-        <v>366</v>
+        <v>993</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +8996,10 @@
         <v>923</v>
       </c>
       <c r="B438" t="s">
-        <v>709</v>
+        <v>827</v>
       </c>
       <c r="C438" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +9007,10 @@
         <v>923</v>
       </c>
       <c r="B439" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="C439" t="s">
-        <v>208</v>
+        <v>366</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +9018,10 @@
         <v>923</v>
       </c>
       <c r="B440" t="s">
-        <v>516</v>
+        <v>709</v>
       </c>
       <c r="C440" t="s">
-        <v>517</v>
+        <v>710</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,21 +9029,21 @@
         <v>923</v>
       </c>
       <c r="B441" t="s">
-        <v>656</v>
+        <v>208</v>
       </c>
       <c r="C441" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B442" t="s">
-        <v>1113</v>
+        <v>516</v>
       </c>
       <c r="C442" t="s">
-        <v>994</v>
+        <v>517</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,32 +9051,32 @@
         <v>923</v>
       </c>
       <c r="B443" t="s">
-        <v>831</v>
+        <v>656</v>
       </c>
       <c r="C443" t="s">
-        <v>994</v>
+        <v>657</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B444" t="s">
-        <v>660</v>
+        <v>1113</v>
       </c>
       <c r="C444" t="s">
-        <v>661</v>
+        <v>994</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B445" t="s">
-        <v>1211</v>
+        <v>831</v>
       </c>
       <c r="C445" t="s">
-        <v>1211</v>
+        <v>994</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,21 +9084,21 @@
         <v>923</v>
       </c>
       <c r="B446" t="s">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="C446" t="s">
-        <v>41</v>
+        <v>661</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B447" t="s">
-        <v>867</v>
+        <v>1211</v>
       </c>
       <c r="C447" t="s">
-        <v>868</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,21 +9106,21 @@
         <v>923</v>
       </c>
       <c r="B448" t="s">
-        <v>770</v>
+        <v>40</v>
       </c>
       <c r="C448" t="s">
-        <v>771</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B449" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1243</v>
+        <v>867</v>
+      </c>
+      <c r="C449" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,21 +9128,21 @@
         <v>923</v>
       </c>
       <c r="B450" t="s">
-        <v>913</v>
+        <v>770</v>
       </c>
       <c r="C450" t="s">
-        <v>914</v>
+        <v>771</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B451" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1017</v>
+        <v>1176</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,32 +9150,32 @@
         <v>923</v>
       </c>
       <c r="B452" t="s">
-        <v>758</v>
+        <v>913</v>
       </c>
       <c r="C452" t="s">
-        <v>759</v>
+        <v>914</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B453" t="s">
-        <v>696</v>
+        <v>1034</v>
       </c>
       <c r="C453" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B454" t="s">
-        <v>1052</v>
+        <v>758</v>
       </c>
       <c r="C454" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,18 +9183,18 @@
         <v>923</v>
       </c>
       <c r="B455" t="s">
-        <v>834</v>
+        <v>696</v>
       </c>
       <c r="C455" t="s">
-        <v>681</v>
+        <v>995</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B456" t="s">
-        <v>680</v>
+        <v>1052</v>
       </c>
       <c r="C456" t="s">
         <v>681</v>
@@ -9217,21 +9205,21 @@
         <v>923</v>
       </c>
       <c r="B457" t="s">
-        <v>690</v>
+        <v>834</v>
       </c>
       <c r="C457" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B458" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>1177</v>
+        <v>680</v>
+      </c>
+      <c r="C458" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,21 +9227,21 @@
         <v>923</v>
       </c>
       <c r="B459" t="s">
-        <v>530</v>
+        <v>690</v>
       </c>
       <c r="C459" t="s">
-        <v>531</v>
+        <v>691</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B460" t="s">
-        <v>127</v>
-      </c>
-      <c r="C460" t="s">
-        <v>128</v>
+        <v>1177</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,21 +9249,21 @@
         <v>923</v>
       </c>
       <c r="B461" t="s">
-        <v>813</v>
+        <v>530</v>
       </c>
       <c r="C461" t="s">
-        <v>814</v>
+        <v>531</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B462" t="s">
-        <v>1114</v>
+        <v>127</v>
       </c>
       <c r="C462" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,21 +9271,21 @@
         <v>923</v>
       </c>
       <c r="B463" t="s">
-        <v>181</v>
+        <v>813</v>
       </c>
       <c r="C463" t="s">
-        <v>182</v>
+        <v>814</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B464" t="s">
-        <v>203</v>
+        <v>1114</v>
       </c>
       <c r="C464" t="s">
-        <v>996</v>
+        <v>182</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,10 +9293,10 @@
         <v>923</v>
       </c>
       <c r="B465" t="s">
-        <v>903</v>
+        <v>181</v>
       </c>
       <c r="C465" t="s">
-        <v>904</v>
+        <v>182</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,10 +9304,10 @@
         <v>923</v>
       </c>
       <c r="B466" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C466" t="s">
-        <v>104</v>
+        <v>996</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,21 +9315,21 @@
         <v>923</v>
       </c>
       <c r="B467" t="s">
-        <v>173</v>
+        <v>903</v>
       </c>
       <c r="C467" t="s">
-        <v>174</v>
+        <v>904</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B468" t="s">
-        <v>1178</v>
+        <v>103</v>
       </c>
       <c r="C468" t="s">
-        <v>1178</v>
+        <v>104</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,76 +9337,76 @@
         <v>923</v>
       </c>
       <c r="B469" t="s">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="C469" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B470" t="s">
-        <v>216</v>
+        <v>1178</v>
       </c>
       <c r="C470" t="s">
-        <v>997</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B471" t="s">
-        <v>1212</v>
+        <v>341</v>
       </c>
       <c r="C471" t="s">
-        <v>1212</v>
+        <v>342</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B472" t="s">
-        <v>1179</v>
+        <v>216</v>
       </c>
       <c r="C472" t="s">
-        <v>1179</v>
+        <v>997</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B473" t="s">
-        <v>349</v>
+        <v>1212</v>
       </c>
       <c r="C473" t="s">
-        <v>350</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B474" t="s">
-        <v>662</v>
+        <v>1179</v>
       </c>
       <c r="C474" t="s">
-        <v>663</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B475" t="s">
-        <v>1213</v>
+        <v>349</v>
       </c>
       <c r="C475" t="s">
-        <v>1213</v>
+        <v>350</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,32 +9414,32 @@
         <v>923</v>
       </c>
       <c r="B476" t="s">
-        <v>359</v>
+        <v>662</v>
       </c>
       <c r="C476" t="s">
-        <v>360</v>
+        <v>663</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B477" t="s">
-        <v>887</v>
+        <v>1213</v>
       </c>
       <c r="C477" t="s">
-        <v>888</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B478" t="s">
-        <v>1115</v>
+        <v>359</v>
       </c>
       <c r="C478" t="s">
-        <v>998</v>
+        <v>360</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,10 +9447,10 @@
         <v>923</v>
       </c>
       <c r="B479" t="s">
-        <v>9</v>
+        <v>887</v>
       </c>
       <c r="C479" t="s">
-        <v>998</v>
+        <v>888</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,10 +9458,10 @@
         <v>1129</v>
       </c>
       <c r="B480" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>1245</v>
+        <v>1115</v>
+      </c>
+      <c r="C480" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,10 +9469,10 @@
         <v>923</v>
       </c>
       <c r="B481" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="C481" t="s">
-        <v>329</v>
+        <v>998</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,10 +9480,10 @@
         <v>1129</v>
       </c>
       <c r="B482" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1181</v>
+        <v>1180</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,21 +9491,21 @@
         <v>923</v>
       </c>
       <c r="B483" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="C483" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B484" t="s">
-        <v>633</v>
+        <v>1181</v>
       </c>
       <c r="C484" t="s">
-        <v>634</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,10 +9513,10 @@
         <v>923</v>
       </c>
       <c r="B485" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C485" t="s">
-        <v>999</v>
+        <v>421</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,21 +9524,21 @@
         <v>923</v>
       </c>
       <c r="B486" t="s">
-        <v>727</v>
+        <v>633</v>
       </c>
       <c r="C486" t="s">
-        <v>728</v>
+        <v>634</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B487" t="s">
-        <v>1116</v>
+        <v>413</v>
       </c>
       <c r="C487" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,10 +9546,10 @@
         <v>923</v>
       </c>
       <c r="B488" t="s">
-        <v>28</v>
+        <v>727</v>
       </c>
       <c r="C488" t="s">
-        <v>1000</v>
+        <v>728</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,10 +9557,10 @@
         <v>1129</v>
       </c>
       <c r="B489" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>1244</v>
+        <v>1116</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,10 +9568,10 @@
         <v>923</v>
       </c>
       <c r="B490" t="s">
-        <v>754</v>
+        <v>28</v>
       </c>
       <c r="C490" t="s">
-        <v>755</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,10 +9579,10 @@
         <v>1129</v>
       </c>
       <c r="B491" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,21 +9590,21 @@
         <v>923</v>
       </c>
       <c r="B492" t="s">
-        <v>909</v>
+        <v>754</v>
       </c>
       <c r="C492" t="s">
-        <v>910</v>
+        <v>755</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B493" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1066</v>
+        <v>1183</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,21 +9612,21 @@
         <v>923</v>
       </c>
       <c r="B494" t="s">
-        <v>494</v>
+        <v>909</v>
       </c>
       <c r="C494" t="s">
-        <v>495</v>
+        <v>910</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1129</v>
+        <v>1032</v>
       </c>
       <c r="B495" t="s">
-        <v>1184</v>
+        <v>1057</v>
       </c>
       <c r="C495" t="s">
-        <v>1184</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,21 +9634,21 @@
         <v>923</v>
       </c>
       <c r="B496" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="C496" t="s">
-        <v>1001</v>
+        <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B497" t="s">
-        <v>737</v>
+        <v>1184</v>
       </c>
       <c r="C497" t="s">
-        <v>738</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9668,21 +9656,21 @@
         <v>923</v>
       </c>
       <c r="B498" t="s">
-        <v>426</v>
+        <v>533</v>
       </c>
       <c r="C498" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B499" t="s">
-        <v>1117</v>
+        <v>737</v>
       </c>
       <c r="C499" t="s">
-        <v>1003</v>
+        <v>738</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,21 +9678,21 @@
         <v>923</v>
       </c>
       <c r="B500" t="s">
-        <v>202</v>
+        <v>426</v>
       </c>
       <c r="C500" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B501" t="s">
-        <v>600</v>
+        <v>1117</v>
       </c>
       <c r="C501" t="s">
-        <v>601</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9712,10 +9700,10 @@
         <v>923</v>
       </c>
       <c r="B502" t="s">
-        <v>729</v>
+        <v>202</v>
       </c>
       <c r="C502" t="s">
-        <v>730</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9723,21 +9711,21 @@
         <v>923</v>
       </c>
       <c r="B503" t="s">
-        <v>318</v>
+        <v>600</v>
       </c>
       <c r="C503" t="s">
-        <v>319</v>
+        <v>601</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B504" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>1185</v>
+        <v>729</v>
+      </c>
+      <c r="C504" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9745,32 +9733,32 @@
         <v>923</v>
       </c>
       <c r="B505" t="s">
-        <v>829</v>
+        <v>318</v>
       </c>
       <c r="C505" t="s">
-        <v>830</v>
+        <v>319</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B506" t="s">
-        <v>879</v>
-      </c>
-      <c r="C506" t="s">
-        <v>880</v>
+        <v>1185</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B507" t="s">
-        <v>1186</v>
+        <v>829</v>
       </c>
       <c r="C507" t="s">
-        <v>1186</v>
+        <v>830</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,32 +9766,32 @@
         <v>923</v>
       </c>
       <c r="B508" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="C508" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B509" t="s">
-        <v>31</v>
+        <v>1186</v>
       </c>
       <c r="C509" t="s">
-        <v>1004</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B510" t="s">
-        <v>31</v>
+        <v>863</v>
       </c>
       <c r="C510" t="s">
-        <v>1004</v>
+        <v>864</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,21 +9799,21 @@
         <v>923</v>
       </c>
       <c r="B511" t="s">
-        <v>572</v>
+        <v>31</v>
       </c>
       <c r="C511" t="s">
-        <v>573</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B512" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="C512" t="s">
-        <v>380</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9833,10 +9821,10 @@
         <v>923</v>
       </c>
       <c r="B513" t="s">
-        <v>877</v>
+        <v>572</v>
       </c>
       <c r="C513" t="s">
-        <v>878</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9844,10 +9832,10 @@
         <v>923</v>
       </c>
       <c r="B514" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C514" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,10 +9843,10 @@
         <v>923</v>
       </c>
       <c r="B515" t="s">
-        <v>36</v>
+        <v>877</v>
       </c>
       <c r="C515" t="s">
-        <v>37</v>
+        <v>878</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9866,10 +9854,10 @@
         <v>923</v>
       </c>
       <c r="B516" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C516" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9877,10 +9865,10 @@
         <v>923</v>
       </c>
       <c r="B517" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="C517" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,21 +9876,21 @@
         <v>923</v>
       </c>
       <c r="B518" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="C518" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B519" t="s">
-        <v>1118</v>
+        <v>388</v>
       </c>
       <c r="C519" t="s">
-        <v>134</v>
+        <v>389</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,10 +9898,10 @@
         <v>923</v>
       </c>
       <c r="B520" t="s">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="C520" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,10 +9909,10 @@
         <v>1129</v>
       </c>
       <c r="B521" t="s">
-        <v>1214</v>
+        <v>1118</v>
       </c>
       <c r="C521" t="s">
-        <v>1214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9932,21 +9920,21 @@
         <v>923</v>
       </c>
       <c r="B522" t="s">
-        <v>452</v>
+        <v>133</v>
       </c>
       <c r="C522" t="s">
-        <v>453</v>
+        <v>134</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B523" t="s">
-        <v>1035</v>
+        <v>1214</v>
       </c>
       <c r="C523" t="s">
-        <v>1062</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,21 +9942,21 @@
         <v>923</v>
       </c>
       <c r="B524" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="C524" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B525" t="s">
-        <v>646</v>
+        <v>1035</v>
       </c>
       <c r="C525" t="s">
-        <v>647</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -9976,10 +9964,10 @@
         <v>923</v>
       </c>
       <c r="B526" t="s">
-        <v>772</v>
+        <v>32</v>
       </c>
       <c r="C526" t="s">
-        <v>773</v>
+        <v>33</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,21 +9975,21 @@
         <v>923</v>
       </c>
       <c r="B527" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="C527" t="s">
-        <v>1227</v>
+        <v>647</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B528" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>1227</v>
+        <v>772</v>
+      </c>
+      <c r="C528" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10009,21 +9997,21 @@
         <v>923</v>
       </c>
       <c r="B529" t="s">
-        <v>782</v>
+        <v>565</v>
       </c>
       <c r="C529" t="s">
-        <v>783</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B530" t="s">
-        <v>324</v>
-      </c>
-      <c r="C530" t="s">
-        <v>325</v>
+        <v>1187</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10031,10 +10019,10 @@
         <v>923</v>
       </c>
       <c r="B531" t="s">
-        <v>15</v>
+        <v>782</v>
       </c>
       <c r="C531" t="s">
-        <v>16</v>
+        <v>783</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10042,10 +10030,10 @@
         <v>923</v>
       </c>
       <c r="B532" t="s">
-        <v>800</v>
+        <v>324</v>
       </c>
       <c r="C532" t="s">
-        <v>801</v>
+        <v>325</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10053,10 +10041,10 @@
         <v>923</v>
       </c>
       <c r="B533" t="s">
-        <v>819</v>
+        <v>15</v>
       </c>
       <c r="C533" t="s">
-        <v>820</v>
+        <v>16</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10064,21 +10052,21 @@
         <v>923</v>
       </c>
       <c r="B534" t="s">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="C534" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B535" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>1188</v>
+        <v>819</v>
+      </c>
+      <c r="C535" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10086,21 +10074,21 @@
         <v>923</v>
       </c>
       <c r="B536" t="s">
-        <v>493</v>
+        <v>719</v>
       </c>
       <c r="C536" t="s">
-        <v>1005</v>
+        <v>720</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B537" t="s">
-        <v>109</v>
-      </c>
-      <c r="C537" t="s">
-        <v>110</v>
+        <v>1188</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,10 +10096,10 @@
         <v>923</v>
       </c>
       <c r="B538" t="s">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="C538" t="s">
-        <v>81</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,10 +10107,10 @@
         <v>923</v>
       </c>
       <c r="B539" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C539" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10130,21 +10118,21 @@
         <v>923</v>
       </c>
       <c r="B540" t="s">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="C540" t="s">
-        <v>687</v>
+        <v>81</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B541" t="s">
-        <v>1189</v>
+        <v>189</v>
       </c>
       <c r="C541" t="s">
-        <v>1189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10152,21 +10140,21 @@
         <v>923</v>
       </c>
       <c r="B542" t="s">
-        <v>532</v>
+        <v>686</v>
       </c>
       <c r="C542" t="s">
-        <v>1006</v>
+        <v>687</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B543" t="s">
-        <v>62</v>
+        <v>1189</v>
       </c>
       <c r="C543" t="s">
-        <v>63</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10174,10 +10162,10 @@
         <v>923</v>
       </c>
       <c r="B544" t="s">
-        <v>825</v>
+        <v>532</v>
       </c>
       <c r="C544" t="s">
-        <v>826</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10185,10 +10173,10 @@
         <v>923</v>
       </c>
       <c r="B545" t="s">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="C545" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10196,10 +10184,10 @@
         <v>923</v>
       </c>
       <c r="B546" t="s">
-        <v>267</v>
+        <v>825</v>
       </c>
       <c r="C546" t="s">
-        <v>1007</v>
+        <v>826</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,10 +10195,10 @@
         <v>923</v>
       </c>
       <c r="B547" t="s">
-        <v>653</v>
+        <v>287</v>
       </c>
       <c r="C547" t="s">
-        <v>654</v>
+        <v>288</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10218,10 +10206,10 @@
         <v>923</v>
       </c>
       <c r="B548" t="s">
-        <v>523</v>
+        <v>267</v>
       </c>
       <c r="C548" t="s">
-        <v>524</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10229,10 +10217,10 @@
         <v>923</v>
       </c>
       <c r="B549" t="s">
-        <v>262</v>
+        <v>653</v>
       </c>
       <c r="C549" t="s">
-        <v>263</v>
+        <v>654</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,10 +10228,10 @@
         <v>923</v>
       </c>
       <c r="B550" t="s">
-        <v>316</v>
+        <v>523</v>
       </c>
       <c r="C550" t="s">
-        <v>317</v>
+        <v>524</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10251,21 +10239,21 @@
         <v>923</v>
       </c>
       <c r="B551" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="C551" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B552" t="s">
-        <v>1041</v>
+        <v>316</v>
       </c>
       <c r="C552" t="s">
-        <v>860</v>
+        <v>317</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10273,32 +10261,32 @@
         <v>923</v>
       </c>
       <c r="B553" t="s">
-        <v>859</v>
+        <v>322</v>
       </c>
       <c r="C553" t="s">
-        <v>860</v>
+        <v>323</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B554" t="s">
-        <v>602</v>
+        <v>1041</v>
       </c>
       <c r="C554" t="s">
-        <v>603</v>
+        <v>860</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B555" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>1247</v>
+        <v>859</v>
+      </c>
+      <c r="C555" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10306,32 +10294,32 @@
         <v>923</v>
       </c>
       <c r="B556" t="s">
-        <v>193</v>
+        <v>602</v>
       </c>
       <c r="C556" t="s">
-        <v>1008</v>
+        <v>603</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B557" t="s">
-        <v>496</v>
-      </c>
-      <c r="C557" t="s">
-        <v>497</v>
+        <v>1190</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B558" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>1248</v>
+        <v>193</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10339,21 +10327,21 @@
         <v>923</v>
       </c>
       <c r="B559" t="s">
-        <v>238</v>
+        <v>496</v>
       </c>
       <c r="C559" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B560" t="s">
-        <v>613</v>
-      </c>
-      <c r="C560" t="s">
-        <v>614</v>
+        <v>1191</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10361,21 +10349,21 @@
         <v>923</v>
       </c>
       <c r="B561" t="s">
-        <v>792</v>
+        <v>238</v>
       </c>
       <c r="C561" t="s">
-        <v>793</v>
+        <v>239</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B562" t="s">
-        <v>1119</v>
+        <v>613</v>
       </c>
       <c r="C562" t="s">
-        <v>1216</v>
+        <v>614</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10383,18 +10371,18 @@
         <v>923</v>
       </c>
       <c r="B563" t="s">
-        <v>188</v>
+        <v>792</v>
       </c>
       <c r="C563" t="s">
-        <v>1216</v>
+        <v>793</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B564" t="s">
-        <v>444</v>
+        <v>1119</v>
       </c>
       <c r="C564" t="s">
         <v>1216</v>
@@ -10405,10 +10393,10 @@
         <v>923</v>
       </c>
       <c r="B565" t="s">
-        <v>871</v>
+        <v>188</v>
       </c>
       <c r="C565" t="s">
-        <v>872</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,10 +10404,10 @@
         <v>923</v>
       </c>
       <c r="B566" t="s">
-        <v>166</v>
+        <v>444</v>
       </c>
       <c r="C566" t="s">
-        <v>1009</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10427,10 +10415,10 @@
         <v>923</v>
       </c>
       <c r="B567" t="s">
-        <v>703</v>
+        <v>871</v>
       </c>
       <c r="C567" t="s">
-        <v>704</v>
+        <v>872</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10438,21 +10426,21 @@
         <v>923</v>
       </c>
       <c r="B568" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="C568" t="s">
-        <v>259</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B569" t="s">
-        <v>1120</v>
+        <v>703</v>
       </c>
       <c r="C569" t="s">
-        <v>1010</v>
+        <v>704</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10460,21 +10448,21 @@
         <v>923</v>
       </c>
       <c r="B570" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="C570" t="s">
-        <v>1010</v>
+        <v>259</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B571" t="s">
-        <v>746</v>
+        <v>1120</v>
       </c>
       <c r="C571" t="s">
-        <v>747</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10482,10 +10470,10 @@
         <v>923</v>
       </c>
       <c r="B572" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C572" t="s">
-        <v>30</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10493,10 +10481,10 @@
         <v>923</v>
       </c>
       <c r="B573" t="s">
-        <v>204</v>
+        <v>746</v>
       </c>
       <c r="C573" t="s">
-        <v>205</v>
+        <v>747</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10504,21 +10492,21 @@
         <v>923</v>
       </c>
       <c r="B574" t="s">
-        <v>553</v>
+        <v>29</v>
       </c>
       <c r="C574" t="s">
-        <v>554</v>
+        <v>30</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B575" t="s">
-        <v>1121</v>
+        <v>204</v>
       </c>
       <c r="C575" t="s">
-        <v>1011</v>
+        <v>205</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10526,21 +10514,21 @@
         <v>923</v>
       </c>
       <c r="B576" t="s">
-        <v>451</v>
+        <v>553</v>
       </c>
       <c r="C576" t="s">
-        <v>1011</v>
+        <v>554</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B577" t="s">
-        <v>488</v>
+        <v>1121</v>
       </c>
       <c r="C577" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10548,10 +10536,10 @@
         <v>923</v>
       </c>
       <c r="B578" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="C578" t="s">
-        <v>400</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10559,21 +10547,21 @@
         <v>923</v>
       </c>
       <c r="B579" t="s">
-        <v>581</v>
+        <v>488</v>
       </c>
       <c r="C579" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B580" t="s">
-        <v>1192</v>
+        <v>399</v>
       </c>
       <c r="C580" t="s">
-        <v>1192</v>
+        <v>400</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10581,21 +10569,21 @@
         <v>923</v>
       </c>
       <c r="B581" t="s">
-        <v>113</v>
+        <v>581</v>
       </c>
       <c r="C581" t="s">
-        <v>1224</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B582" t="s">
-        <v>589</v>
+        <v>1192</v>
       </c>
       <c r="C582" t="s">
-        <v>590</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10603,10 +10591,10 @@
         <v>923</v>
       </c>
       <c r="B583" t="s">
-        <v>658</v>
+        <v>113</v>
       </c>
       <c r="C583" t="s">
-        <v>659</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10614,10 +10602,10 @@
         <v>923</v>
       </c>
       <c r="B584" t="s">
-        <v>26</v>
+        <v>589</v>
       </c>
       <c r="C584" t="s">
-        <v>27</v>
+        <v>590</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10625,10 +10613,10 @@
         <v>923</v>
       </c>
       <c r="B585" t="s">
-        <v>540</v>
+        <v>658</v>
       </c>
       <c r="C585" t="s">
-        <v>541</v>
+        <v>659</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10636,10 +10624,10 @@
         <v>923</v>
       </c>
       <c r="B586" t="s">
-        <v>427</v>
+        <v>26</v>
       </c>
       <c r="C586" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10647,10 +10635,10 @@
         <v>923</v>
       </c>
       <c r="B587" t="s">
-        <v>811</v>
+        <v>540</v>
       </c>
       <c r="C587" t="s">
-        <v>812</v>
+        <v>541</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10658,10 +10646,10 @@
         <v>923</v>
       </c>
       <c r="B588" t="s">
-        <v>865</v>
+        <v>427</v>
       </c>
       <c r="C588" t="s">
-        <v>866</v>
+        <v>428</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10669,65 +10657,65 @@
         <v>923</v>
       </c>
       <c r="B589" t="s">
-        <v>743</v>
+        <v>811</v>
       </c>
       <c r="C589" t="s">
-        <v>744</v>
+        <v>812</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B590" t="s">
-        <v>1065</v>
+        <v>865</v>
       </c>
       <c r="C590" t="s">
-        <v>1056</v>
+        <v>866</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B591" t="s">
-        <v>1056</v>
+        <v>743</v>
       </c>
       <c r="C591" t="s">
-        <v>1056</v>
+        <v>744</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B592" t="s">
-        <v>1048</v>
+        <v>1065</v>
       </c>
       <c r="C592" t="s">
-        <v>315</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B593" t="s">
-        <v>314</v>
+        <v>1056</v>
       </c>
       <c r="C593" t="s">
-        <v>315</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B594" t="s">
-        <v>92</v>
+        <v>1048</v>
       </c>
       <c r="C594" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10735,10 +10723,10 @@
         <v>923</v>
       </c>
       <c r="B595" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="C595" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10746,10 +10734,10 @@
         <v>923</v>
       </c>
       <c r="B596" t="s">
-        <v>651</v>
+        <v>92</v>
       </c>
       <c r="C596" t="s">
-        <v>1014</v>
+        <v>93</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10757,10 +10745,10 @@
         <v>923</v>
       </c>
       <c r="B597" t="s">
-        <v>351</v>
+        <v>158</v>
       </c>
       <c r="C597" t="s">
-        <v>352</v>
+        <v>159</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10768,21 +10756,21 @@
         <v>923</v>
       </c>
       <c r="B598" t="s">
-        <v>242</v>
+        <v>651</v>
       </c>
       <c r="C598" t="s">
-        <v>243</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B599" t="s">
-        <v>1193</v>
+        <v>351</v>
       </c>
       <c r="C599" t="s">
-        <v>1193</v>
+        <v>352</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10790,10 +10778,10 @@
         <v>923</v>
       </c>
       <c r="B600" t="s">
-        <v>815</v>
+        <v>242</v>
       </c>
       <c r="C600" t="s">
-        <v>816</v>
+        <v>243</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10801,10 +10789,10 @@
         <v>1129</v>
       </c>
       <c r="B601" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C601" t="s">
-        <v>816</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10812,21 +10800,21 @@
         <v>923</v>
       </c>
       <c r="B602" t="s">
-        <v>250</v>
+        <v>815</v>
       </c>
       <c r="C602" t="s">
-        <v>251</v>
+        <v>816</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B603" t="s">
-        <v>371</v>
+        <v>1194</v>
       </c>
       <c r="C603" t="s">
-        <v>372</v>
+        <v>816</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10834,10 +10822,10 @@
         <v>923</v>
       </c>
       <c r="B604" t="s">
-        <v>454</v>
+        <v>250</v>
       </c>
       <c r="C604" t="s">
-        <v>455</v>
+        <v>251</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10845,10 +10833,10 @@
         <v>923</v>
       </c>
       <c r="B605" t="s">
-        <v>780</v>
+        <v>371</v>
       </c>
       <c r="C605" t="s">
-        <v>781</v>
+        <v>372</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10856,10 +10844,10 @@
         <v>923</v>
       </c>
       <c r="B606" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
       <c r="C606" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10867,10 +10855,10 @@
         <v>923</v>
       </c>
       <c r="B607" t="s">
-        <v>525</v>
+        <v>780</v>
       </c>
       <c r="C607" t="s">
-        <v>526</v>
+        <v>781</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10878,21 +10866,21 @@
         <v>923</v>
       </c>
       <c r="B608" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C608" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B609" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1195</v>
+        <v>525</v>
+      </c>
+      <c r="C609" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10900,21 +10888,21 @@
         <v>923</v>
       </c>
       <c r="B610" t="s">
-        <v>485</v>
+        <v>373</v>
       </c>
       <c r="C610" t="s">
-        <v>484</v>
+        <v>374</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B611" t="s">
-        <v>483</v>
-      </c>
-      <c r="C611" t="s">
-        <v>484</v>
+        <v>1195</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -10922,10 +10910,10 @@
         <v>923</v>
       </c>
       <c r="B612" t="s">
-        <v>741</v>
+        <v>485</v>
       </c>
       <c r="C612" t="s">
-        <v>742</v>
+        <v>484</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -10933,10 +10921,10 @@
         <v>923</v>
       </c>
       <c r="B613" t="s">
-        <v>24</v>
+        <v>483</v>
       </c>
       <c r="C613" t="s">
-        <v>25</v>
+        <v>484</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -10944,10 +10932,10 @@
         <v>923</v>
       </c>
       <c r="B614" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="C614" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -10955,10 +10943,10 @@
         <v>923</v>
       </c>
       <c r="B615" t="s">
-        <v>821</v>
+        <v>24</v>
       </c>
       <c r="C615" t="s">
-        <v>822</v>
+        <v>25</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -10966,10 +10954,10 @@
         <v>923</v>
       </c>
       <c r="B616" t="s">
-        <v>303</v>
+        <v>762</v>
       </c>
       <c r="C616" t="s">
-        <v>1015</v>
+        <v>763</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -10977,32 +10965,32 @@
         <v>923</v>
       </c>
       <c r="B617" t="s">
-        <v>284</v>
+        <v>821</v>
       </c>
       <c r="C617" t="s">
-        <v>284</v>
+        <v>822</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B618" t="s">
-        <v>1122</v>
+        <v>303</v>
       </c>
       <c r="C618" t="s">
-        <v>97</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B619" t="s">
-        <v>1215</v>
+        <v>284</v>
       </c>
       <c r="C619" t="s">
-        <v>1215</v>
+        <v>284</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11010,21 +10998,21 @@
         <v>1129</v>
       </c>
       <c r="B620" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>1249</v>
+        <v>1122</v>
+      </c>
+      <c r="C620" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B621" t="s">
-        <v>756</v>
+        <v>1215</v>
       </c>
       <c r="C621" t="s">
-        <v>757</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11032,10 +11020,10 @@
         <v>1129</v>
       </c>
       <c r="B622" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11043,21 +11031,21 @@
         <v>923</v>
       </c>
       <c r="B623" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="C623" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B624" t="s">
-        <v>66</v>
-      </c>
-      <c r="C624" t="s">
-        <v>67</v>
+        <v>1197</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11065,54 +11053,54 @@
         <v>923</v>
       </c>
       <c r="B625" t="s">
-        <v>346</v>
+        <v>731</v>
       </c>
       <c r="C625" t="s">
-        <v>347</v>
+        <v>732</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B626" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C626" s="1" t="s">
-        <v>1198</v>
+        <v>66</v>
+      </c>
+      <c r="C626" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B627" t="s">
-        <v>1123</v>
+        <v>346</v>
       </c>
       <c r="C627" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B628" t="s">
-        <v>151</v>
-      </c>
-      <c r="C628" t="s">
-        <v>152</v>
+        <v>1198</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B629" t="s">
-        <v>363</v>
+        <v>1123</v>
       </c>
       <c r="C629" t="s">
-        <v>364</v>
+        <v>152</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11120,10 +11108,10 @@
         <v>923</v>
       </c>
       <c r="B630" t="s">
-        <v>408</v>
+        <v>151</v>
       </c>
       <c r="C630" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -11131,10 +11119,10 @@
         <v>923</v>
       </c>
       <c r="B631" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="C631" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -11142,10 +11130,10 @@
         <v>923</v>
       </c>
       <c r="B632" t="s">
-        <v>673</v>
+        <v>408</v>
       </c>
       <c r="C632" t="s">
-        <v>674</v>
+        <v>409</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11153,10 +11141,10 @@
         <v>923</v>
       </c>
       <c r="B633" t="s">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="C633" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11164,10 +11152,10 @@
         <v>923</v>
       </c>
       <c r="B634" t="s">
-        <v>449</v>
+        <v>673</v>
       </c>
       <c r="C634" t="s">
-        <v>450</v>
+        <v>674</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11175,21 +11163,21 @@
         <v>923</v>
       </c>
       <c r="B635" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="C635" t="s">
-        <v>1016</v>
+        <v>279</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B636" t="s">
-        <v>1124</v>
+        <v>449</v>
       </c>
       <c r="C636" t="s">
-        <v>1017</v>
+        <v>450</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11197,32 +11185,32 @@
         <v>923</v>
       </c>
       <c r="B637" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C637" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B638" t="s">
-        <v>538</v>
+        <v>1124</v>
       </c>
       <c r="C638" t="s">
-        <v>539</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B639" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C639" s="1" t="s">
-        <v>1251</v>
+        <v>17</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11230,32 +11218,32 @@
         <v>923</v>
       </c>
       <c r="B640" t="s">
-        <v>627</v>
+        <v>538</v>
       </c>
       <c r="C640" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B641" t="s">
-        <v>655</v>
-      </c>
-      <c r="C641" t="s">
-        <v>655</v>
+        <v>1199</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B642" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>1252</v>
+        <v>627</v>
+      </c>
+      <c r="C642" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11263,51 +11251,51 @@
         <v>923</v>
       </c>
       <c r="B643" t="s">
-        <v>442</v>
+        <v>655</v>
       </c>
       <c r="C643" t="s">
-        <v>443</v>
+        <v>655</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B644" t="s">
-        <v>550</v>
-      </c>
-      <c r="C644" t="s">
-        <v>551</v>
+        <v>1200</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B645" t="s">
-        <v>1125</v>
+        <v>442</v>
       </c>
       <c r="C645" t="s">
-        <v>1018</v>
+        <v>443</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B646" t="s">
-        <v>1054</v>
+        <v>550</v>
       </c>
       <c r="C646" t="s">
-        <v>1018</v>
+        <v>551</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B647" t="s">
-        <v>194</v>
+        <v>1125</v>
       </c>
       <c r="C647" t="s">
         <v>1018</v>
@@ -11315,13 +11303,13 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B648" t="s">
-        <v>416</v>
+        <v>1054</v>
       </c>
       <c r="C648" t="s">
-        <v>417</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -11329,21 +11317,21 @@
         <v>923</v>
       </c>
       <c r="B649" t="s">
-        <v>835</v>
+        <v>194</v>
       </c>
       <c r="C649" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B650" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>1201</v>
+        <v>416</v>
+      </c>
+      <c r="C650" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -11351,10 +11339,10 @@
         <v>923</v>
       </c>
       <c r="B651" t="s">
-        <v>570</v>
+        <v>835</v>
       </c>
       <c r="C651" t="s">
-        <v>571</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -11362,43 +11350,43 @@
         <v>1129</v>
       </c>
       <c r="B652" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1253</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B653" t="s">
-        <v>1126</v>
+        <v>570</v>
       </c>
       <c r="C653" t="s">
-        <v>1020</v>
+        <v>571</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B654" t="s">
-        <v>196</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1020</v>
+        <v>1202</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B655" t="s">
-        <v>723</v>
+        <v>1126</v>
       </c>
       <c r="C655" t="s">
-        <v>724</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -11406,21 +11394,21 @@
         <v>923</v>
       </c>
       <c r="B656" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="C656" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B657" t="s">
-        <v>1042</v>
+        <v>723</v>
       </c>
       <c r="C657" t="s">
-        <v>1022</v>
+        <v>724</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -11428,18 +11416,18 @@
         <v>923</v>
       </c>
       <c r="B658" t="s">
-        <v>684</v>
+        <v>276</v>
       </c>
       <c r="C658" t="s">
-        <v>685</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B659" t="s">
-        <v>135</v>
+        <v>1042</v>
       </c>
       <c r="C659" t="s">
         <v>1022</v>
@@ -11447,10 +11435,10 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B660" t="s">
-        <v>1203</v>
+        <v>684</v>
       </c>
       <c r="C660" t="s">
         <v>685</v>
@@ -11461,21 +11449,21 @@
         <v>923</v>
       </c>
       <c r="B661" t="s">
-        <v>857</v>
+        <v>135</v>
       </c>
       <c r="C661" t="s">
-        <v>858</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B662" t="s">
-        <v>745</v>
+        <v>1203</v>
       </c>
       <c r="C662" t="s">
-        <v>1023</v>
+        <v>685</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -11483,10 +11471,10 @@
         <v>923</v>
       </c>
       <c r="B663" t="s">
-        <v>609</v>
+        <v>857</v>
       </c>
       <c r="C663" t="s">
-        <v>610</v>
+        <v>858</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -11494,21 +11482,21 @@
         <v>923</v>
       </c>
       <c r="B664" t="s">
-        <v>626</v>
+        <v>745</v>
       </c>
       <c r="C664" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B665" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C665" s="1" t="s">
-        <v>1254</v>
+        <v>609</v>
+      </c>
+      <c r="C665" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -11516,21 +11504,21 @@
         <v>923</v>
       </c>
       <c r="B666" t="s">
-        <v>805</v>
+        <v>626</v>
       </c>
       <c r="C666" t="s">
-        <v>806</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B667" t="s">
-        <v>3</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1025</v>
+        <v>1204</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -11538,10 +11526,10 @@
         <v>923</v>
       </c>
       <c r="B668" t="s">
-        <v>502</v>
+        <v>805</v>
       </c>
       <c r="C668" t="s">
-        <v>503</v>
+        <v>806</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -11549,10 +11537,10 @@
         <v>923</v>
       </c>
       <c r="B669" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="C669" t="s">
-        <v>300</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -11560,10 +11548,10 @@
         <v>923</v>
       </c>
       <c r="B670" t="s">
-        <v>94</v>
+        <v>502</v>
       </c>
       <c r="C670" t="s">
-        <v>95</v>
+        <v>503</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -11571,21 +11559,21 @@
         <v>923</v>
       </c>
       <c r="B671" t="s">
-        <v>678</v>
+        <v>299</v>
       </c>
       <c r="C671" t="s">
-        <v>679</v>
+        <v>300</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B672" t="s">
-        <v>1037</v>
+        <v>94</v>
       </c>
       <c r="C672" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -11593,21 +11581,21 @@
         <v>923</v>
       </c>
       <c r="B673" t="s">
-        <v>74</v>
+        <v>678</v>
       </c>
       <c r="C673" t="s">
-        <v>75</v>
+        <v>679</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B674" t="s">
-        <v>534</v>
+        <v>1037</v>
       </c>
       <c r="C674" t="s">
-        <v>535</v>
+        <v>75</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -11615,10 +11603,10 @@
         <v>923</v>
       </c>
       <c r="B675" t="s">
-        <v>556</v>
+        <v>74</v>
       </c>
       <c r="C675" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -11626,10 +11614,10 @@
         <v>923</v>
       </c>
       <c r="B676" t="s">
-        <v>144</v>
+        <v>534</v>
       </c>
       <c r="C676" t="s">
-        <v>145</v>
+        <v>535</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -11637,21 +11625,21 @@
         <v>923</v>
       </c>
       <c r="B677" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="C677" t="s">
-        <v>799</v>
+        <v>145</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B678" t="s">
-        <v>1127</v>
+        <v>144</v>
       </c>
       <c r="C678" t="s">
-        <v>1026</v>
+        <v>145</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -11659,18 +11647,18 @@
         <v>923</v>
       </c>
       <c r="B679" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="C679" t="s">
-        <v>1026</v>
+        <v>799</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B680" t="s">
-        <v>157</v>
+        <v>1127</v>
       </c>
       <c r="C680" t="s">
         <v>1026</v>
@@ -11678,13 +11666,13 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B681" t="s">
-        <v>1205</v>
+        <v>282</v>
       </c>
       <c r="C681" t="s">
-        <v>1205</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -11692,21 +11680,21 @@
         <v>923</v>
       </c>
       <c r="B682" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C682" t="s">
-        <v>137</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B683" t="s">
-        <v>383</v>
+        <v>1205</v>
       </c>
       <c r="C683" t="s">
-        <v>1027</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -11714,10 +11702,10 @@
         <v>923</v>
       </c>
       <c r="B684" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="C684" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -11725,10 +11713,10 @@
         <v>923</v>
       </c>
       <c r="B685" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="C685" t="s">
-        <v>321</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -11736,10 +11724,10 @@
         <v>923</v>
       </c>
       <c r="B686" t="s">
-        <v>688</v>
+        <v>212</v>
       </c>
       <c r="C686" t="s">
-        <v>689</v>
+        <v>213</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,10 +11735,10 @@
         <v>923</v>
       </c>
       <c r="B687" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C687" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -11758,21 +11746,21 @@
         <v>923</v>
       </c>
       <c r="B688" t="s">
-        <v>836</v>
+        <v>688</v>
       </c>
       <c r="C688" t="s">
-        <v>1028</v>
+        <v>689</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B689" t="s">
-        <v>1039</v>
+        <v>296</v>
       </c>
       <c r="C689" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -11780,21 +11768,21 @@
         <v>923</v>
       </c>
       <c r="B690" t="s">
-        <v>11</v>
+        <v>836</v>
       </c>
       <c r="C690" t="s">
-        <v>12</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B691" t="s">
-        <v>244</v>
+        <v>1039</v>
       </c>
       <c r="C691" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
@@ -11802,10 +11790,10 @@
         <v>923</v>
       </c>
       <c r="B692" t="s">
-        <v>718</v>
+        <v>11</v>
       </c>
       <c r="C692" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -11813,21 +11801,21 @@
         <v>923</v>
       </c>
       <c r="B693" t="s">
-        <v>481</v>
+        <v>244</v>
       </c>
       <c r="C693" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B694" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C694" s="1" t="s">
-        <v>1206</v>
+        <v>718</v>
+      </c>
+      <c r="C694" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -11835,10 +11823,10 @@
         <v>923</v>
       </c>
       <c r="B695" t="s">
-        <v>774</v>
+        <v>481</v>
       </c>
       <c r="C695" t="s">
-        <v>775</v>
+        <v>482</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -11846,10 +11834,10 @@
         <v>1129</v>
       </c>
       <c r="B696" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>1255</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -11857,21 +11845,21 @@
         <v>923</v>
       </c>
       <c r="B697" t="s">
-        <v>87</v>
+        <v>774</v>
       </c>
       <c r="C697" t="s">
-        <v>1029</v>
+        <v>775</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B698" t="s">
-        <v>631</v>
-      </c>
-      <c r="C698" t="s">
-        <v>632</v>
+        <v>1207</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
@@ -11879,10 +11867,10 @@
         <v>923</v>
       </c>
       <c r="B699" t="s">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="C699" t="s">
-        <v>307</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
@@ -11890,40 +11878,40 @@
         <v>923</v>
       </c>
       <c r="B700" t="s">
-        <v>784</v>
+        <v>631</v>
       </c>
       <c r="C700" t="s">
-        <v>785</v>
+        <v>632</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1129</v>
+        <v>923</v>
       </c>
       <c r="B701" t="s">
-        <v>1128</v>
+        <v>306</v>
       </c>
       <c r="C701" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B702" t="s">
-        <v>1040</v>
+        <v>784</v>
       </c>
       <c r="C702" t="s">
-        <v>56</v>
+        <v>785</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>923</v>
+        <v>1129</v>
       </c>
       <c r="B703" t="s">
-        <v>412</v>
+        <v>1128</v>
       </c>
       <c r="C703" t="s">
         <v>56</v>
@@ -11931,10 +11919,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B704" t="s">
-        <v>55</v>
+        <v>1040</v>
       </c>
       <c r="C704" t="s">
         <v>56</v>
@@ -11945,21 +11933,21 @@
         <v>923</v>
       </c>
       <c r="B705" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C705" t="s">
-        <v>415</v>
+        <v>56</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B706" t="s">
-        <v>1050</v>
+        <v>55</v>
       </c>
       <c r="C706" t="s">
-        <v>1030</v>
+        <v>56</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -11967,21 +11955,21 @@
         <v>923</v>
       </c>
       <c r="B707" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="C707" t="s">
-        <v>1030</v>
+        <v>415</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B708" t="s">
-        <v>796</v>
+        <v>1050</v>
       </c>
       <c r="C708" t="s">
-        <v>797</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -11989,10 +11977,10 @@
         <v>923</v>
       </c>
       <c r="B709" t="s">
-        <v>682</v>
+        <v>209</v>
       </c>
       <c r="C709" t="s">
-        <v>683</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -12000,21 +11988,21 @@
         <v>923</v>
       </c>
       <c r="B710" t="s">
-        <v>297</v>
+        <v>796</v>
       </c>
       <c r="C710" t="s">
-        <v>298</v>
+        <v>797</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1032</v>
+        <v>923</v>
       </c>
       <c r="B711" t="s">
-        <v>1060</v>
+        <v>682</v>
       </c>
       <c r="C711" t="s">
-        <v>862</v>
+        <v>683</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -12022,21 +12010,21 @@
         <v>923</v>
       </c>
       <c r="B712" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C712" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>923</v>
+        <v>1032</v>
       </c>
       <c r="B713" t="s">
-        <v>527</v>
+        <v>1060</v>
       </c>
       <c r="C713" t="s">
-        <v>528</v>
+        <v>862</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -12044,10 +12032,10 @@
         <v>923</v>
       </c>
       <c r="B714" t="s">
-        <v>861</v>
+        <v>256</v>
       </c>
       <c r="C714" t="s">
-        <v>862</v>
+        <v>257</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -12055,10 +12043,10 @@
         <v>923</v>
       </c>
       <c r="B715" t="s">
-        <v>68</v>
+        <v>527</v>
       </c>
       <c r="C715" t="s">
-        <v>69</v>
+        <v>528</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -12066,20 +12054,42 @@
         <v>923</v>
       </c>
       <c r="B716" t="s">
+        <v>861</v>
+      </c>
+      <c r="C716" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>923</v>
+      </c>
+      <c r="B717" t="s">
+        <v>68</v>
+      </c>
+      <c r="C717" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>923</v>
+      </c>
+      <c r="B718" t="s">
         <v>739</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C718" t="s">
         <v>740</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C716" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C716">
-      <sortCondition ref="B1:B716"/>
+  <autoFilter ref="A1:C718" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C718">
+      <sortCondition ref="B1:B718"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D716">
-    <sortCondition sortBy="cellColor" ref="C2:C716" dxfId="2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D718">
+    <sortCondition sortBy="cellColor" ref="C2:C718" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
